--- a/cs2200-project1/microcode/microcode.xlsx
+++ b/cs2200-project1/microcode/microcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandhasundaravadivel/Documents/2200/cs2200-project1/microcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3422AF-8113-F246-9E63-2182B79FC243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89A0A78-0D10-0E45-9A49-9286949E21ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30200" yWindow="-1020" windowWidth="27620" windowHeight="14920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-14400" windowWidth="25380" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Index</t>
   </si>
@@ -271,6 +271,42 @@
   </si>
   <si>
     <t>Fetch3</t>
+  </si>
+  <si>
+    <t>ADD1</t>
+  </si>
+  <si>
+    <t>ADD2</t>
+  </si>
+  <si>
+    <t>ADD3</t>
+  </si>
+  <si>
+    <t>NAND1</t>
+  </si>
+  <si>
+    <t>NAND2</t>
+  </si>
+  <si>
+    <t>NAND3</t>
+  </si>
+  <si>
+    <t>ADDI1</t>
+  </si>
+  <si>
+    <t>ADDI2</t>
+  </si>
+  <si>
+    <t>ADDI3</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>ADD $t0, T1, $t2</t>
+  </si>
+  <si>
+    <t>00000110011100000000000000001000'</t>
   </si>
 </sst>
 </file>
@@ -519,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +617,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,6 +670,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,9 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -896,14 +934,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1264,9 +1302,9 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>0E00900</v>
+      <c r="AE4" s="23" t="e">
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC4,AB4),1),BIN2HEX(_xlfn.CONCAT(AA4,4,Y4,X4),1),BIN2HEX(_xlfn.CONCAT(W4,V4,U4,T4),1),BIN2HEX(_xlfn.CONCAT(S4,R4,Q4,P4),1),BIN2HEX(_xlfn.CONCAT(O4,N4,M4,L4),1),BIN2HEX(_xlfn.CONCAT(K4,J4,C4,D4),1),BIN2HEX(_xlfn.CONCAT(E4,F4,G4,H4),1))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,7 +1406,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
@@ -1379,20 +1419,20 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -1416,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="4">
         <v>0</v>
@@ -1454,7 +1494,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0004045</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,7 +1502,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
@@ -1473,20 +1515,20 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -1513,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -1525,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="4">
         <v>0</v>
@@ -1548,7 +1590,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0088046</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1598,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
@@ -1586,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="12">
         <v>0</v>
@@ -1613,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
@@ -1622,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
@@ -1642,7 +1686,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0120100</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1744,7 +1788,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
@@ -1752,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1761,14 +1807,14 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -1792,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="4">
         <v>0</v>
@@ -1813,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="4">
         <v>0</v>
@@ -1830,7 +1876,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0204049</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,7 +1884,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
@@ -1846,23 +1894,23 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -1889,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -1901,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="W11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="4">
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="4">
         <v>0</v>
@@ -1924,7 +1972,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>028804A</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1932,7 +1980,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
@@ -1962,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="12">
         <v>0</v>
@@ -1989,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="4">
         <v>0</v>
@@ -1998,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="4">
         <v>0</v>
@@ -2018,7 +2068,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0320100</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,7 +2170,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
@@ -2128,23 +2180,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -2168,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="4">
         <v>0</v>
@@ -2183,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
@@ -2206,7 +2258,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>008404D</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,7 +2266,9 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
@@ -2222,20 +2276,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2250,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -2265,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
@@ -2300,7 +2354,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>000840E</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2308,7 +2362,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
@@ -2338,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="12">
         <v>0</v>
@@ -2365,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="4">
         <v>0</v>
@@ -2374,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="4">
         <v>0</v>
@@ -2394,7 +2450,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0120100</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5510,30 +5566,30 @@
       <c r="AD52" s="2"/>
     </row>
     <row r="53" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="42"/>
-      <c r="L53" s="39" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="L53" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="42"/>
-      <c r="Q53" s="27" t="s">
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="43"/>
+      <c r="Q53" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
       <c r="X53" s="21"/>
@@ -5557,14 +5613,14 @@
       <c r="B54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
       <c r="I54" s="1" t="s">
         <v>25</v>
       </c>
@@ -5583,11 +5639,11 @@
       <c r="O54" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
       <c r="X54" s="21"/>
@@ -5611,12 +5667,12 @@
       <c r="B55" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
       <c r="I55" s="4"/>
       <c r="J55" s="14" t="str">
         <f>DEC2HEX(C55)</f>
@@ -5628,16 +5684,18 @@
       <c r="M55" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" s="2">
+        <v>5</v>
+      </c>
       <c r="O55" s="14" t="str">
         <f t="shared" ref="O55:O70" si="3">DEC2HEX(N55,2)</f>
-        <v>00</v>
-      </c>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
+        <v>05</v>
+      </c>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
@@ -5661,12 +5719,12 @@
       <c r="B56" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="15"/>
       <c r="J56" s="16" t="str">
         <f>DEC2HEX(C56)</f>
@@ -5678,16 +5736,18 @@
       <c r="M56" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" s="2">
+        <v>8</v>
+      </c>
       <c r="O56" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
+        <v>08</v>
+      </c>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
       <c r="X56" s="21"/>
@@ -5714,16 +5774,18 @@
       <c r="M57" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" s="2">
+        <v>12</v>
+      </c>
       <c r="O57" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
+        <v>0C</v>
+      </c>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
@@ -5741,11 +5803,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
@@ -5776,13 +5838,13 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q60" s="29" t="s">
+      <c r="Q60" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
     </row>
     <row r="61" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L61" s="17" t="s">
@@ -5796,11 +5858,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
     </row>
     <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="17" t="s">
@@ -5814,11 +5876,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
     </row>
     <row r="63" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L63" s="17" t="s">
@@ -5832,11 +5894,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
     </row>
     <row r="64" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L64" s="17" t="s">
@@ -5850,26 +5912,26 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-    </row>
-    <row r="65" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+    </row>
+    <row r="65" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L65" s="17"/>
       <c r="M65" s="18"/>
       <c r="O65" s="14" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-    </row>
-    <row r="66" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+    </row>
+    <row r="66" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L66" s="17"/>
       <c r="M66" s="18"/>
       <c r="O66" s="14" t="str">
@@ -5877,7 +5939,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="67" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
       <c r="O67" s="14" t="str">
@@ -5885,7 +5947,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="68" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L68" s="17"/>
       <c r="M68" s="18"/>
       <c r="O68" s="14" t="str">
@@ -5893,7 +5955,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="69" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L69" s="17"/>
       <c r="M69" s="18"/>
       <c r="O69" s="14" t="str">
@@ -5901,7 +5963,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="70" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L70" s="17"/>
       <c r="M70" s="18"/>
       <c r="O70" s="14" t="str">
@@ -5909,48 +5971,68 @@
         <v>00</v>
       </c>
     </row>
-    <row r="71" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L71" s="17"/>
       <c r="O71" s="24"/>
     </row>
-    <row r="72" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L72" s="31" t="s">
+    <row r="72" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="34"/>
       <c r="AO72" s="4"/>
     </row>
-    <row r="73" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L73" s="34"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="36"/>
-    </row>
-    <row r="74" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="12:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L73" s="35"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="37"/>
+    </row>
+    <row r="74" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="25">
+        <v>6700008</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O91" s="25">
+        <v>6700008</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/cs2200-project1/microcode/microcode.xlsx
+++ b/cs2200-project1/microcode/microcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandhasundaravadivel/Documents/2200/cs2200-project1/microcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89A0A78-0D10-0E45-9A49-9286949E21ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE077FD7-A669-274B-9B05-1DC6FF6DA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-14400" windowWidth="25380" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37260" yWindow="-7060" windowWidth="27820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Index</t>
   </si>
@@ -126,7 +126,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Hint: </t>
     </r>
@@ -135,7 +135,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>The values in the 'Hex' Column are circuitsim compatible. You should be able to just copy and paste them directly into the circuitsim ROMs. Not all rows (of the above table) may be used for the microcode.</t>
     </r>
@@ -168,7 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Hint</t>
     </r>
@@ -177,7 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>: The values for the sequencer and CC ROMs can be base 10 decimal numbers, they will be automatically converted in the 'HEX' column</t>
     </r>
@@ -189,7 +189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Note</t>
     </r>
@@ -198,7 +198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>: What goes into the Sequencer ROM? Read the PDF to understand.</t>
     </r>
@@ -307,6 +307,96 @@
   </si>
   <si>
     <t>00000110011100000000000000001000'</t>
+  </si>
+  <si>
+    <t>LW1</t>
+  </si>
+  <si>
+    <t>LW2</t>
+  </si>
+  <si>
+    <t>LW3</t>
+  </si>
+  <si>
+    <t>LW4</t>
+  </si>
+  <si>
+    <t>LW $t0, $t0, 0</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>BGE1</t>
+  </si>
+  <si>
+    <t>BGE2</t>
+  </si>
+  <si>
+    <t>BGE3</t>
+  </si>
+  <si>
+    <t>BGE4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>CMPTRUE1</t>
+  </si>
+  <si>
+    <t>CMPTRUE2</t>
+  </si>
+  <si>
+    <t>CMPTRUE3</t>
+  </si>
+  <si>
+    <t>BLE1</t>
+  </si>
+  <si>
+    <t>BLE2</t>
+  </si>
+  <si>
+    <t>BLE3</t>
+  </si>
+  <si>
+    <t>BLE4</t>
+  </si>
+  <si>
+    <t>JALR2</t>
+  </si>
+  <si>
+    <t>JALR1</t>
+  </si>
+  <si>
+    <t>LEA1</t>
+  </si>
+  <si>
+    <t>LEA2</t>
+  </si>
+  <si>
+    <t>LEA $at, 0</t>
+  </si>
+  <si>
+    <t>LEA3</t>
+  </si>
+  <si>
+    <t>JALR $t0, $zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLE $zero, $zero, </t>
   </si>
 </sst>
 </file>
@@ -325,90 +415,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -555,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,9 +708,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,18 +755,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEAAA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEAAA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEAAA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEAAA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEAAA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEAAA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -901,9 +1030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE4" sqref="AE4"/>
+      <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -934,14 +1063,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1302,9 +1431,9 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="23" t="e">
-        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC4,AB4),1),BIN2HEX(_xlfn.CONCAT(AA4,4,Y4,X4),1),BIN2HEX(_xlfn.CONCAT(W4,V4,U4,T4),1),BIN2HEX(_xlfn.CONCAT(S4,R4,Q4,P4),1),BIN2HEX(_xlfn.CONCAT(O4,N4,M4,L4),1),BIN2HEX(_xlfn.CONCAT(K4,J4,C4,D4),1),BIN2HEX(_xlfn.CONCAT(E4,F4,G4,H4),1))</f>
-        <v>#NUM!</v>
+      <c r="AE4" s="23" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC4,AB4),1),BIN2HEX(_xlfn.CONCAT(AA4,Z4,Y4,X4),1),BIN2HEX(_xlfn.CONCAT(W4,V4,U4,T4),1),BIN2HEX(_xlfn.CONCAT(S4,R4,Q4,P4),1),BIN2HEX(_xlfn.CONCAT(O4,N4,M4,L4),1),BIN2HEX(_xlfn.CONCAT(K4,J4,C4,D4),1),BIN2HEX(_xlfn.CONCAT(E4,F4,G4,H4),1))</f>
+        <v>0E00900</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1397,7 +1526,7 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC5,AB5),1),BIN2HEX(_xlfn.CONCAT(AA5,Z5,Y5,X5),1),BIN2HEX(_xlfn.CONCAT(W5,V5,U5,T5),1),BIN2HEX(_xlfn.CONCAT(S5,R5,Q5,P5),1),BIN2HEX(_xlfn.CONCAT(O5,N5,M5,L5),1),BIN2HEX(_xlfn.CONCAT(K5,J5,C5,D5),1),BIN2HEX(_xlfn.CONCAT(E5,F5,G5,H5),1))</f>
         <v>0000000</v>
       </c>
     </row>
@@ -1471,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="4">
         <v>0</v>
@@ -1494,7 +1623,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0004045</v>
+        <v>0084045</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1567,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -1590,7 +1719,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0088046</v>
+        <v>0108046</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1666,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
@@ -1686,7 +1815,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0120100</v>
+        <v>0020100</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="4">
         <v>0</v>
@@ -1972,7 +2101,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>028804A</v>
+        <v>048804A</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="4">
         <v>0</v>
@@ -2068,7 +2197,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0320100</v>
+        <v>0520100</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="4">
         <v>0</v>
@@ -2354,7 +2483,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>000840E</v>
+        <v>010840E</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2430,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
         <v>0</v>
@@ -2450,7 +2579,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0120100</v>
+        <v>0020100</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,12 +2681,14 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2569,14 +2700,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -2600,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -2615,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="4">
         <v>0</v>
@@ -2637,8 +2768,8 @@
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000</v>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC18,AB18),1),BIN2HEX(_xlfn.CONCAT(AA18,Z18,Y18,X18),1),BIN2HEX(_xlfn.CONCAT(W18,V18,U18,T18),1),BIN2HEX(_xlfn.CONCAT(S18,R18,Q18,P18),1),BIN2HEX(_xlfn.CONCAT(O18,N18,M18,L18),1),BIN2HEX(_xlfn.CONCAT(K18,J18,C18,D18),1),BIN2HEX(_xlfn.CONCAT(E18,F18,G18,H18),1))</f>
+        <v>0084051</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2646,12 +2777,14 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2660,14 +2793,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
@@ -2682,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
@@ -2697,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -2732,7 +2865,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0008412</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,12 +2873,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2754,14 +2889,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
@@ -2770,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="12">
         <v>0</v>
@@ -2785,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="12">
         <v>0</v>
@@ -2826,7 +2961,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0002113</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2834,7 +2969,9 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
@@ -2861,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -2891,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="4">
         <v>0</v>
@@ -2920,7 +3057,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0020080</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3022,31 +3159,33 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -3070,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4">
         <v>0</v>
@@ -3085,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
@@ -3108,7 +3247,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0084056</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3116,28 +3255,30 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J24" s="12">
         <v>0</v>
@@ -3152,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="4">
         <v>0</v>
@@ -3167,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -3202,7 +3343,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0008417</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3210,15 +3351,17 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -3231,7 +3374,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J25" s="12">
         <v>0</v>
@@ -3240,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="12">
         <v>0</v>
@@ -3255,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="12">
         <v>0</v>
@@ -3296,7 +3439,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0002118</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3304,7 +3447,9 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="4">
         <v>0</v>
       </c>
@@ -3328,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
@@ -3364,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="4">
         <v>0</v>
@@ -3390,7 +3535,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0040040</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3492,31 +3637,33 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
@@ -3540,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="4">
         <v>0</v>
@@ -3578,7 +3725,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>000405B</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3586,18 +3733,20 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -3607,10 +3756,10 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
@@ -3637,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="4">
         <v>0</v>
@@ -3649,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="4">
         <v>0</v>
       </c>
       <c r="Y29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="4">
         <v>0</v>
@@ -3672,7 +3821,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>028805C</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3680,28 +3829,30 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J30" s="12">
         <v>0</v>
@@ -3710,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="12">
         <v>0</v>
@@ -3734,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="4">
         <v>0</v>
@@ -3749,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="4">
         <v>0</v>
@@ -3761,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="AC30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>221011D</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3774,7 +3925,9 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
@@ -3852,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="4">
         <v>0</v>
@@ -3860,7 +4013,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3962,9 +4115,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3983,7 +4138,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J33" s="12">
         <v>0</v>
@@ -3995,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
@@ -4010,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="4">
         <v>0</v>
@@ -4048,7 +4203,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0004220</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,9 +4211,11 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -4073,11 +4230,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J34" s="12">
         <v>0</v>
@@ -4092,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
@@ -4107,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="4">
         <v>0</v>
@@ -4142,7 +4299,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0008421</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4150,7 +4307,9 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
@@ -4180,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="12">
         <v>0</v>
@@ -4189,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4">
         <v>0</v>
@@ -4236,7 +4395,7 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0000900</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4322,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="4">
         <v>0</v>
@@ -4330,7 +4489,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4338,9 +4497,11 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -4349,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -4359,10 +4520,10 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J37" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
@@ -4386,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="4">
         <v>0</v>
@@ -4424,7 +4585,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0004064</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4432,9 +4593,11 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -4443,20 +4606,20 @@
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J38" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
@@ -4483,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4">
         <v>0</v>
@@ -4495,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="W38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="4">
         <v>0</v>
       </c>
       <c r="Y38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="4">
         <v>0</v>
@@ -4518,7 +4681,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0288065</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4526,9 +4689,11 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -4537,17 +4702,17 @@
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
@@ -4556,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="12">
         <v>0</v>
@@ -4580,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4">
         <v>0</v>
@@ -4595,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="4">
         <v>0</v>
@@ -4612,7 +4777,7 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0210126</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>26</v>
@@ -4623,7 +4788,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="C40" s="4">
         <v>0</v>
       </c>
@@ -4701,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="4">
         <v>0</v>
@@ -4709,7 +4876,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4811,15 +4978,17 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -4828,11 +4997,11 @@
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J42" s="12">
         <v>0</v>
@@ -4844,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4">
         <v>0</v>
@@ -4868,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="4">
         <v>0</v>
@@ -4897,7 +5066,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0020229</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4905,7 +5074,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
@@ -4929,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4">
         <v>0</v>
@@ -4944,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4">
         <v>0</v>
@@ -4968,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="4">
         <v>0</v>
@@ -4991,7 +5162,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0080840</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5093,28 +5264,30 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J45" s="12">
         <v>0</v>
@@ -5179,7 +5352,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>000002B</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5281,28 +5454,30 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
       </c>
       <c r="I47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J47" s="12">
         <v>0</v>
@@ -5314,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4">
         <v>0</v>
@@ -5329,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="4">
         <v>0</v>
@@ -5367,7 +5542,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>000422E</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5375,28 +5550,30 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J48" s="12">
         <v>0</v>
@@ -5411,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="4">
         <v>0</v>
@@ -5426,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="4">
         <v>0</v>
@@ -5461,7 +5638,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>000842F</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5469,7 +5646,9 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
@@ -5499,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="12">
         <v>0</v>
@@ -5526,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="4">
         <v>0</v>
@@ -5555,7 +5734,7 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0020100</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5566,30 +5745,30 @@
       <c r="AD52" s="2"/>
     </row>
     <row r="53" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="L53" s="40" t="s">
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="46"/>
+      <c r="L53" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="43"/>
-      <c r="Q53" s="28" t="s">
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="46"/>
+      <c r="Q53" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
       <c r="X53" s="21"/>
@@ -5613,14 +5792,14 @@
       <c r="B54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="1" t="s">
         <v>25</v>
       </c>
@@ -5639,11 +5818,11 @@
       <c r="O54" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
       <c r="X54" s="21"/>
@@ -5667,12 +5846,14 @@
       <c r="B55" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="C55" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="4"/>
       <c r="J55" s="14" t="str">
         <f>DEC2HEX(C55)</f>
@@ -5685,17 +5866,17 @@
         <v>49</v>
       </c>
       <c r="N55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O55" s="14" t="str">
-        <f t="shared" ref="O55:O70" si="3">DEC2HEX(N55,2)</f>
-        <v>05</v>
-      </c>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
+        <f>DEC2HEX(N55,2)</f>
+        <v>04</v>
+      </c>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
@@ -5719,16 +5900,18 @@
       <c r="B56" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="C56" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="15"/>
       <c r="J56" s="16" t="str">
         <f>DEC2HEX(C56)</f>
-        <v>0</v>
+        <v>1F</v>
       </c>
       <c r="L56" s="17" t="s">
         <v>40</v>
@@ -5740,14 +5923,14 @@
         <v>8</v>
       </c>
       <c r="O56" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O56:O70" si="3">DEC2HEX(N56,2)</f>
         <v>08</v>
       </c>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
       <c r="X56" s="21"/>
@@ -5781,11 +5964,11 @@
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
@@ -5798,16 +5981,18 @@
       <c r="M58" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" s="2">
+        <v>16</v>
+      </c>
       <c r="O58" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
@@ -5820,10 +6005,12 @@
       <c r="M59" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N59" s="19"/>
+      <c r="N59" s="19">
+        <v>21</v>
+      </c>
       <c r="O59" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5833,18 +6020,20 @@
       <c r="M60" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" s="2">
+        <v>26</v>
+      </c>
       <c r="O60" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q60" s="30" t="s">
+        <v>1A</v>
+      </c>
+      <c r="Q60" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
     </row>
     <row r="61" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L61" s="17" t="s">
@@ -5853,16 +6042,18 @@
       <c r="M61" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" s="2">
+        <v>40</v>
+      </c>
       <c r="O61" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
     </row>
     <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="17" t="s">
@@ -5871,16 +6062,18 @@
       <c r="M62" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N62" s="19"/>
+      <c r="N62" s="19">
+        <v>43</v>
+      </c>
       <c r="O62" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
+        <v>2B</v>
+      </c>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
     </row>
     <row r="63" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L63" s="17" t="s">
@@ -5889,16 +6082,18 @@
       <c r="M63" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N63" s="2"/>
+      <c r="N63" s="2">
+        <v>35</v>
+      </c>
       <c r="O63" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
+        <v>23</v>
+      </c>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
     </row>
     <row r="64" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L64" s="17" t="s">
@@ -5907,16 +6102,18 @@
       <c r="M64" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N64" s="2"/>
+      <c r="N64" s="2">
+        <v>45</v>
+      </c>
       <c r="O64" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
+        <v>2D</v>
+      </c>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
     </row>
     <row r="65" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L65" s="17"/>
@@ -5925,11 +6122,11 @@
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
     </row>
     <row r="66" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L66" s="17"/>
@@ -5976,19 +6173,19 @@
       <c r="O71" s="24"/>
     </row>
     <row r="72" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L72" s="32" t="s">
+      <c r="L72" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="34"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="37"/>
       <c r="AO72" s="4"/>
     </row>
     <row r="73" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L73" s="35"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="37"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="40"/>
     </row>
     <row r="74" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6000,39 +6197,74 @@
       <c r="B80" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="48" t="s">
+      <c r="K81">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="25">
         <v>6700008</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K83" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="26">
+        <v>36600000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="28">
+        <v>91000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
       <c r="O91" s="25">
         <v>6700008</v>
       </c>
-    </row>
-    <row r="92" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="R91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="28">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6946,7 +7178,37 @@
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="C55:H55"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:H49 J2:AC49">
+  <conditionalFormatting sqref="C2:H49 J2:AC27 J42:AC49 J33:AC36">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:AC32">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:AC30">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:AC31">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:AC41">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:AC39">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:AC40">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
